--- a/top_keywords.xlsx
+++ b/top_keywords.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rewadeshpande/PycharmProjects/tfidf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rewadeshpande/CodeProjects/AWSHealthCareSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB429A0-3FAF-3449-9A87-BF6DB8C294CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F34511-EA94-EE46-B6FC-852241953F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$E$1701</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5181" uniqueCount="604">
   <si>
     <t>question_number</t>
   </si>
@@ -1664,6 +1665,177 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>cre, carbapenem, enterobacteriaceae</t>
+  </si>
+  <si>
+    <t>auris, antifungal, candida</t>
+  </si>
+  <si>
+    <t>mrsa, aureus, methicillin, staph, staphylococcus</t>
+  </si>
+  <si>
+    <t>difficile, bacterium, cdif, clostridioides, clostridium, colitis, diarrhea, intestinal</t>
+  </si>
+  <si>
+    <t>mdro, pathogens, bacteria, enterococci, vancomycin, vre</t>
+  </si>
+  <si>
+    <t>cov, sars, virus</t>
+  </si>
+  <si>
+    <t>dementia, ox1</t>
+  </si>
+  <si>
+    <t>cov, sars</t>
+  </si>
+  <si>
+    <t>bullet, surgery</t>
+  </si>
+  <si>
+    <t>custodial, therapy</t>
+  </si>
+  <si>
+    <t>rolling, transfer, walker, wheelchair</t>
+  </si>
+  <si>
+    <t>ecg, electrocardiogram</t>
+  </si>
+  <si>
+    <t>fluidized, geriatric, bariatric, psychiatric, pressure</t>
+  </si>
+  <si>
+    <t>glucose, nebulizer, pump, pumps, suction, ventilator, bipap, cpap, infusion</t>
+  </si>
+  <si>
+    <t>tissue, pressure, bone, skin, slough, thickness, ulcer, ulcers, eschar, tendon, abrasion</t>
+  </si>
+  <si>
+    <t>wounds, wound</t>
+  </si>
+  <si>
+    <t>vac, vacuum</t>
+  </si>
+  <si>
+    <t>vac, vacuum, bullet</t>
+  </si>
+  <si>
+    <t>smoke, smoking, pack, packs, smoker</t>
+  </si>
+  <si>
+    <t>cocaine, crack, heroin, inhaled, injected, opiates, oxy</t>
+  </si>
+  <si>
+    <t>abuse, etoh, beer, liquor</t>
+  </si>
+  <si>
+    <t>therapy, therapies</t>
+  </si>
+  <si>
+    <t>history, building, damaging, sex, suicidal, threat</t>
+  </si>
+  <si>
+    <t>tuberculosis, tb</t>
+  </si>
+  <si>
+    <t>vre, enterococci, vancomycin, resistant</t>
+  </si>
+  <si>
+    <t>hiv, human, immunodeficiency, virus</t>
+  </si>
+  <si>
+    <t>esbl, extended, lactamases, spectrum</t>
+  </si>
+  <si>
+    <t>aids, acquired, syndrome, immunodeficiency</t>
+  </si>
+  <si>
+    <t>ecg, ekg, electrocardiogram</t>
+  </si>
+  <si>
+    <t>ecardio, cardiac, etrigger</t>
+  </si>
+  <si>
+    <t>bladder, cystogram, postvoid, pvr, radionuclide, residual, volume</t>
+  </si>
+  <si>
+    <t>central, line, venous, catheter</t>
+  </si>
+  <si>
+    <t>midline, catheter</t>
+  </si>
+  <si>
+    <t>implantable, ports</t>
+  </si>
+  <si>
+    <t>drain, jp, penrose, jackson, pratt</t>
+  </si>
+  <si>
+    <t>nephrostomy, urostomy</t>
+  </si>
+  <si>
+    <t>suprapubic, catheter</t>
+  </si>
+  <si>
+    <t>dialysis, catheter</t>
+  </si>
+  <si>
+    <t>pap, bipap, cpap, airway, bi, pressure, bilevel</t>
+  </si>
+  <si>
+    <t>lpm, poc, portable</t>
+  </si>
+  <si>
+    <t>pleurex, pleurx</t>
+  </si>
+  <si>
+    <t>surgical, orthopedic</t>
+  </si>
+  <si>
+    <t>cabg, artery, bypass, coronary, graft</t>
+  </si>
+  <si>
+    <t>lvad, ventricular</t>
+  </si>
+  <si>
+    <t>lifevest, defibrillator</t>
+  </si>
+  <si>
+    <t>tpn, nutrition, parenteral</t>
+  </si>
+  <si>
+    <t>pca, analgesia</t>
+  </si>
+  <si>
+    <t>iv, intravenous</t>
+  </si>
+  <si>
+    <t>iv, infusion, intravenous</t>
+  </si>
+  <si>
+    <t>psychosocial, care, serious</t>
+  </si>
+  <si>
+    <t>dementia, icd10</t>
+  </si>
+  <si>
+    <t>danger, harm</t>
+  </si>
+  <si>
+    <t>aggressive, alzheimer, behaviors, cognitive, contagious, disease, diseases, disruptive, impairments, infections, psychiatric, risk</t>
+  </si>
+  <si>
+    <t>felon, convicted, jail, sentenced</t>
+  </si>
+  <si>
+    <t>sexual, offender</t>
+  </si>
+  <si>
+    <t>etoh, alcohol, abuse</t>
+  </si>
+  <si>
+    <t>blue, commercial, insurance, medicaid, medicare, care, aetna, alliance, anthem, bcbs, centene, cigna, corporation, costs, cross, hcsc, healthcare, humana, kaiser</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1906,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2041,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1010" workbookViewId="0">
+    <sheetView topLeftCell="A1010" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -30974,4 +31146,627 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5EF8D1-00C9-D14E-AF79-F559131B0803}">
+  <dimension ref="A1:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>54</v>
+      </c>
+      <c r="B51" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>59</v>
+      </c>
+      <c r="B56" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>